--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.98528949285184</v>
+        <v>0.8788406666666667</v>
       </c>
       <c r="H2">
-        <v>1.98528949285184</v>
+        <v>2.636522</v>
       </c>
       <c r="I2">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="J2">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.36475674865576</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N2">
-        <v>1.36475674865576</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O2">
-        <v>0.6535315777608501</v>
+        <v>0.638793578492805</v>
       </c>
       <c r="P2">
-        <v>0.6535315777608501</v>
+        <v>0.6387935784928049</v>
       </c>
       <c r="Q2">
-        <v>2.70943723340492</v>
+        <v>1.225926191250444</v>
       </c>
       <c r="R2">
-        <v>2.70943723340492</v>
+        <v>11.033335721254</v>
       </c>
       <c r="S2">
-        <v>0.4581325847834595</v>
+        <v>0.1317640495015296</v>
       </c>
       <c r="T2">
-        <v>0.4581325847834595</v>
+        <v>0.1317640495015296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.98528949285184</v>
+        <v>0.8788406666666667</v>
       </c>
       <c r="H3">
-        <v>1.98528949285184</v>
+        <v>2.636522</v>
       </c>
       <c r="I3">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="J3">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.723522984255894</v>
+        <v>0.7887676666666668</v>
       </c>
       <c r="N3">
-        <v>0.723522984255894</v>
+        <v>2.366303</v>
       </c>
       <c r="O3">
-        <v>0.3464684222391499</v>
+        <v>0.3612064215071951</v>
       </c>
       <c r="P3">
-        <v>0.3464684222391499</v>
+        <v>0.361206421507195</v>
       </c>
       <c r="Q3">
-        <v>1.436402578480034</v>
+        <v>0.6932011020184445</v>
       </c>
       <c r="R3">
-        <v>1.436402578480034</v>
+        <v>6.238809918166002</v>
       </c>
       <c r="S3">
-        <v>0.2428780478674177</v>
+        <v>0.07450610401569729</v>
       </c>
       <c r="T3">
-        <v>0.2428780478674177</v>
+        <v>0.07450610401569727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,61 +652,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.846749566733394</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H4">
-        <v>0.846749566733394</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I4">
-        <v>0.2989893673491228</v>
+        <v>0.4670452440202888</v>
       </c>
       <c r="J4">
-        <v>0.2989893673491228</v>
+        <v>0.4670452440202887</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.36475674865576</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N4">
-        <v>1.36475674865576</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O4">
-        <v>0.6535315777608501</v>
+        <v>0.638793578492805</v>
       </c>
       <c r="P4">
-        <v>0.6535315777608501</v>
+        <v>0.6387935784928049</v>
       </c>
       <c r="Q4">
-        <v>1.15560718562074</v>
+        <v>2.775791782671111</v>
       </c>
       <c r="R4">
-        <v>1.15560718562074</v>
+        <v>24.98212604404</v>
       </c>
       <c r="S4">
-        <v>0.1953989929773907</v>
+        <v>0.2983455027457657</v>
       </c>
       <c r="T4">
-        <v>0.1953989929773907</v>
+        <v>0.2983455027457655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +714,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.989906666666667</v>
+      </c>
+      <c r="H5">
+        <v>5.969720000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.4670452440202888</v>
+      </c>
+      <c r="J5">
+        <v>0.4670452440202887</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.7887676666666668</v>
+      </c>
+      <c r="N5">
+        <v>2.366303</v>
+      </c>
+      <c r="O5">
+        <v>0.3612064215071951</v>
+      </c>
+      <c r="P5">
+        <v>0.361206421507195</v>
+      </c>
+      <c r="Q5">
+        <v>1.569574038351111</v>
+      </c>
+      <c r="R5">
+        <v>14.12616634516</v>
+      </c>
+      <c r="S5">
+        <v>0.1686997412745232</v>
+      </c>
+      <c r="T5">
+        <v>0.1686997412745231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1457676666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.437303</v>
+      </c>
+      <c r="I6">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="J6">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N6">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.638793578492805</v>
+      </c>
+      <c r="P6">
+        <v>0.6387935784928049</v>
+      </c>
+      <c r="Q6">
+        <v>0.203336517280111</v>
+      </c>
+      <c r="R6">
+        <v>1.830028655521</v>
+      </c>
+      <c r="S6">
+        <v>0.02185485808165735</v>
+      </c>
+      <c r="T6">
+        <v>0.02185485808165734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1457676666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.437303</v>
+      </c>
+      <c r="I7">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="J7">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7887676666666668</v>
+      </c>
+      <c r="N7">
+        <v>2.366303</v>
+      </c>
+      <c r="O7">
+        <v>0.3612064215071951</v>
+      </c>
+      <c r="P7">
+        <v>0.361206421507195</v>
+      </c>
+      <c r="Q7">
+        <v>0.1149768223121111</v>
+      </c>
+      <c r="R7">
+        <v>1.034791400809</v>
+      </c>
+      <c r="S7">
+        <v>0.01235784977495977</v>
+      </c>
+      <c r="T7">
+        <v>0.01235784977495976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.846749566733394</v>
-      </c>
-      <c r="H5">
-        <v>0.846749566733394</v>
-      </c>
-      <c r="I5">
-        <v>0.2989893673491228</v>
-      </c>
-      <c r="J5">
-        <v>0.2989893673491228</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.723522984255894</v>
-      </c>
-      <c r="N5">
-        <v>0.723522984255894</v>
-      </c>
-      <c r="O5">
-        <v>0.3464684222391499</v>
-      </c>
-      <c r="P5">
-        <v>0.3464684222391499</v>
-      </c>
-      <c r="Q5">
-        <v>0.6126427734403305</v>
-      </c>
-      <c r="R5">
-        <v>0.6126427734403305</v>
-      </c>
-      <c r="S5">
-        <v>0.1035903743717322</v>
-      </c>
-      <c r="T5">
-        <v>0.1035903743717322</v>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.266402</v>
+      </c>
+      <c r="H8">
+        <v>0.799206</v>
+      </c>
+      <c r="I8">
+        <v>0.06252644366778992</v>
+      </c>
+      <c r="J8">
+        <v>0.06252644366778991</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N8">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.638793578492805</v>
+      </c>
+      <c r="P8">
+        <v>0.6387935784928049</v>
+      </c>
+      <c r="Q8">
+        <v>0.3716136514713332</v>
+      </c>
+      <c r="R8">
+        <v>3.344522863241999</v>
+      </c>
+      <c r="S8">
+        <v>0.03994149070097631</v>
+      </c>
+      <c r="T8">
+        <v>0.0399414907009763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.266402</v>
+      </c>
+      <c r="H9">
+        <v>0.799206</v>
+      </c>
+      <c r="I9">
+        <v>0.06252644366778992</v>
+      </c>
+      <c r="J9">
+        <v>0.06252644366778991</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7887676666666668</v>
+      </c>
+      <c r="N9">
+        <v>2.366303</v>
+      </c>
+      <c r="O9">
+        <v>0.3612064215071951</v>
+      </c>
+      <c r="P9">
+        <v>0.361206421507195</v>
+      </c>
+      <c r="Q9">
+        <v>0.2101292839353333</v>
+      </c>
+      <c r="R9">
+        <v>1.891163555418</v>
+      </c>
+      <c r="S9">
+        <v>0.02258495296681361</v>
+      </c>
+      <c r="T9">
+        <v>0.02258495296681361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.068319</v>
+      </c>
+      <c r="H10">
+        <v>0.204957</v>
+      </c>
+      <c r="I10">
+        <v>0.01603495508644733</v>
+      </c>
+      <c r="J10">
+        <v>0.01603495508644732</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N10">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.638793578492805</v>
+      </c>
+      <c r="P10">
+        <v>0.6387935784928049</v>
+      </c>
+      <c r="Q10">
+        <v>0.09530060981099998</v>
+      </c>
+      <c r="R10">
+        <v>0.8577054882989998</v>
+      </c>
+      <c r="S10">
+        <v>0.01024302634064309</v>
+      </c>
+      <c r="T10">
+        <v>0.01024302634064309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.068319</v>
+      </c>
+      <c r="H11">
+        <v>0.204957</v>
+      </c>
+      <c r="I11">
+        <v>0.01603495508644733</v>
+      </c>
+      <c r="J11">
+        <v>0.01603495508644732</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7887676666666668</v>
+      </c>
+      <c r="N11">
+        <v>2.366303</v>
+      </c>
+      <c r="O11">
+        <v>0.3612064215071951</v>
+      </c>
+      <c r="P11">
+        <v>0.361206421507195</v>
+      </c>
+      <c r="Q11">
+        <v>0.05388781821900001</v>
+      </c>
+      <c r="R11">
+        <v>0.484990363971</v>
+      </c>
+      <c r="S11">
+        <v>0.005791928745804234</v>
+      </c>
+      <c r="T11">
+        <v>0.005791928745804232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9113933333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.73418</v>
+      </c>
+      <c r="I12">
+        <v>0.2139104958516301</v>
+      </c>
+      <c r="J12">
+        <v>0.21391049585163</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N12">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.638793578492805</v>
+      </c>
+      <c r="P12">
+        <v>0.6387935784928049</v>
+      </c>
+      <c r="Q12">
+        <v>1.271335067028889</v>
+      </c>
+      <c r="R12">
+        <v>11.44201560326</v>
+      </c>
+      <c r="S12">
+        <v>0.1366446511222331</v>
+      </c>
+      <c r="T12">
+        <v>0.136644651122233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9113933333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.73418</v>
+      </c>
+      <c r="I13">
+        <v>0.2139104958516301</v>
+      </c>
+      <c r="J13">
+        <v>0.21391049585163</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7887676666666668</v>
+      </c>
+      <c r="N13">
+        <v>2.366303</v>
+      </c>
+      <c r="O13">
+        <v>0.3612064215071951</v>
+      </c>
+      <c r="P13">
+        <v>0.361206421507195</v>
+      </c>
+      <c r="Q13">
+        <v>0.718877592948889</v>
+      </c>
+      <c r="R13">
+        <v>6.46989833654</v>
+      </c>
+      <c r="S13">
+        <v>0.07726584472939699</v>
+      </c>
+      <c r="T13">
+        <v>0.07726584472939696</v>
       </c>
     </row>
   </sheetData>
